--- a/Data/First Class Mail.xlsx
+++ b/Data/First Class Mail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucf-my.sharepoint.com/personal/jo585802_ucf_edu/Documents/Documents/GitHub/ECO6416/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_AFF51555056CA624F29EA9DA9D7A4FBFB887A988" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0426A9C-193F-4869-B701-F2DED0FBD322}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_AFF51555056CA624F29EA9DA9D7A4FBFB887A988" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22354A9F-746F-4D6A-AA40-75E9AD168D5A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Yr</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>FirstClVol</t>
@@ -1108,9 +1105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1130,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -2182,9 +2177,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D62" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="D62" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/First Class Mail.xlsx
+++ b/Data/First Class Mail.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucf-my.sharepoint.com/personal/jo585802_ucf_edu/Documents/Documents/GitHub/ECO6416/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keith\Documents\GitHub\ECO6416\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_AFF51555056CA624F29EA9DA9D7A4FBFB887A988" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22354A9F-746F-4D6A-AA40-75E9AD168D5A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00F461B0-49FB-451D-A72F-53C73B16E406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="simple time trend" sheetId="13" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,21 +34,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>Yr</t>
+  </si>
+  <si>
+    <t>1stClVol</t>
   </si>
   <si>
     <t>PopUSA</t>
   </si>
   <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Time^2</t>
+  </si>
+  <si>
+    <t>LogPopUSA</t>
+  </si>
+  <si>
+    <t>Log1stClVol</t>
+  </si>
+  <si>
+    <t>LN1stClVol</t>
   </si>
   <si>
     <t>Price</t>
   </si>
   <si>
-    <t>FirstClVol</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Lower 80.0%</t>
+  </si>
+  <si>
+    <t>Upper 80.0%</t>
   </si>
 </sst>
 </file>
@@ -56,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +155,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -89,7 +186,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -97,20 +194,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -186,7 +312,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FirstClVol</c:v>
+                  <c:v>1stClVol</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -574,7 +700,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6CAB-4093-8C41-5F0699ED827E}"/>
+              <c16:uniqueId val="{00000000-1AB9-41A4-A13B-CF9B80E5BCBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1102,10 +1228,483 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.98532143367093405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.97085832765134494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.97009144153690674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3.943370254166592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>19686.118640527246</v>
+      </c>
+      <c r="D12" s="4">
+        <v>19686.118640527246</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1265.9745813267862</v>
+      </c>
+      <c r="F12" s="4">
+        <v>8.7309818523487667E-31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4">
+        <v>590.90642053494389</v>
+      </c>
+      <c r="D13" s="4">
+        <v>15.550168961445891</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5">
+        <v>20277.025061062188</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4">
+        <v>25.452426670720016</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.2707577417840097</v>
+      </c>
+      <c r="D17" s="4">
+        <v>20.029330401707799</v>
+      </c>
+      <c r="E17" s="4">
+        <v>8.582457487669326E-22</v>
+      </c>
+      <c r="F17" s="4">
+        <v>22.87991211450651</v>
+      </c>
+      <c r="G17" s="4">
+        <v>28.024941226933521</v>
+      </c>
+      <c r="H17" s="4">
+        <v>23.795066042057623</v>
+      </c>
+      <c r="I17" s="4">
+        <v>27.109787299382408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1.9218365317797352</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5.4013702940429294E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>35.580536551980025</v>
+      </c>
+      <c r="E18" s="5">
+        <v>8.7309818523486424E-31</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1.8124915067758554</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2.0311815567836153</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1.8513902289808581</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1.9922828345786123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.98873195862525765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.97759088600693822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.97700117248080509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3.4579814846598502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>19822.634895028674</v>
+      </c>
+      <c r="D12" s="4">
+        <v>19822.634895028674</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1657.7386183034907</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5.9147079468513321E-33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4">
+        <v>454.39016603351297</v>
+      </c>
+      <c r="D13" s="4">
+        <v>11.957635948250342</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5">
+        <v>20277.025061062188</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4">
+        <v>-118.19058797057039</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4.5287455557555552</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-26.097864522409012</v>
+      </c>
+      <c r="E17" s="4">
+        <v>7.1992214277681715E-26</v>
+      </c>
+      <c r="F17" s="4">
+        <v>-127.3585540434842</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-109.02262189765658</v>
+      </c>
+      <c r="H17" s="4">
+        <v>-124.09711471012166</v>
+      </c>
+      <c r="I17" s="4">
+        <v>-112.28406123101912</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.8054355417067921</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1.9782116835787421E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>40.715336401698693</v>
+      </c>
+      <c r="E18" s="5">
+        <v>5.9147079468513321E-33</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.76538873983459932</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.84548234357898489</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.7796351074326674</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.83123597598091681</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1121,22 +1720,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
@@ -1163,6 +1773,22 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
+      <c r="F2" s="1">
+        <f>E2^2</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <f>LOG10(B2)</f>
+        <v>1.5211380936841685</v>
+      </c>
+      <c r="H2" s="1">
+        <f>LOG10(B2)</f>
+        <v>1.5211380936841685</v>
+      </c>
+      <c r="I2" s="1">
+        <f>LN(B2)</f>
+        <v>3.5025498989025468</v>
+      </c>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -1189,6 +1815,22 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F61" si="0">E3^2</f>
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G59" si="1">LOG10(B3)</f>
+        <v>1.5352941103827005</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H59" si="2">LOG10(B3)</f>
+        <v>1.5352941103827005</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I61" si="3">LN(B3)</f>
+        <v>3.5351453319287613</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
@@ -1206,6 +1848,22 @@
       <c r="E4" s="1">
         <v>3</v>
       </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5477746960014089</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5477746960014089</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5638829423262353</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
@@ -1223,6 +1881,22 @@
       <c r="E5" s="1">
         <v>4</v>
       </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5538830173885561</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5538830173885561</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5779478720954967</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
@@ -1240,6 +1914,22 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5670263841178889</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5670263841178889</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="3"/>
+        <v>3.6082115923982125</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
@@ -1257,6 +1947,22 @@
       <c r="E7" s="1">
         <v>6</v>
       </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5809249582824223</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5809249582824223</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="3"/>
+        <v>3.6402142420833394</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
@@ -1274,6 +1980,22 @@
       <c r="E8" s="1">
         <v>7</v>
       </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6063813815135946</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6063813815135946</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="3"/>
+        <v>3.6988298227363834</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
@@ -1291,6 +2013,22 @@
       <c r="E9" s="1">
         <v>8</v>
       </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6232492903979006</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6232492903979006</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="3"/>
+        <v>3.7376696182833684</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
@@ -1308,6 +2046,22 @@
       <c r="E10" s="1">
         <v>9</v>
       </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6354837544848286</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6354837544848286</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="3"/>
+        <v>3.7658405129107</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
@@ -1325,6 +2079,22 @@
       <c r="E11" s="1">
         <v>10</v>
       </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6665179948367941</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6665179948367941</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="3"/>
+        <v>3.8372994921175301</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
@@ -1342,6 +2112,22 @@
       <c r="E12" s="1">
         <v>11</v>
       </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6866362556268859</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6866362556268859</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="3"/>
+        <v>3.8836234995097625</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
@@ -1359,6 +2145,22 @@
       <c r="E13" s="1">
         <v>12</v>
       </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.711807229041191</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.711807229041191</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="3"/>
+        <v>3.9415818076696905</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
@@ -1376,6 +2178,22 @@
       <c r="E14" s="1">
         <v>13</v>
       </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7015679784686433</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7015679784686433</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="3"/>
+        <v>3.9180050619379112</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
@@ -1393,6 +2211,22 @@
       <c r="E15" s="1">
         <v>14</v>
       </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7185016825318937</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7185016825318937</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="3"/>
+        <v>3.9569963564831245</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
@@ -1410,8 +2244,24 @@
       <c r="E16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7234556845622326</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7234556845622326</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="3"/>
+        <v>3.9684033677088451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>1975</v>
       </c>
@@ -1427,8 +2277,24 @@
       <c r="E17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7201593034059568</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7201593034059568</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="3"/>
+        <v>3.9608131695975781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>1976</v>
       </c>
@@ -1444,8 +2310,24 @@
       <c r="E18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>289</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7201593034059568</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7201593034059568</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="3"/>
+        <v>3.9608131695975781</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>1977</v>
       </c>
@@ -1461,8 +2343,24 @@
       <c r="E19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7299742918697678</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7299742918697678</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="3"/>
+        <v>3.9834130157222574</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>1978</v>
       </c>
@@ -1478,8 +2376,24 @@
       <c r="E20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>361</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7481880270062005</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7481880270062005</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0253516907351496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>1979</v>
       </c>
@@ -1495,8 +2409,24 @@
       <c r="E21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7634279935629373</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7634279935629373</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0604430105464191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>1980</v>
       </c>
@@ -1512,8 +2442,24 @@
       <c r="E22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>441</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7803173066452858</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7803173066452858</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0993320910807443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>1981</v>
       </c>
@@ -1529,8 +2475,24 @@
       <c r="E23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>484</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7888751157754168</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7888751157754168</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="3"/>
+        <v>4.1190371748124726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>1982</v>
       </c>
@@ -1546,8 +2508,24 @@
       <c r="E24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>529</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7944880413407043</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7944880413407043</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="3"/>
+        <v>4.131961413547188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>1983</v>
       </c>
@@ -1563,8 +2541,24 @@
       <c r="E25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>576</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8082109935363768</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8082109935363768</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="3"/>
+        <v>4.1635596787048135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>1984</v>
       </c>
@@ -1580,8 +2574,24 @@
       <c r="E26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8356905714924256</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8356905714924256</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="3"/>
+        <v>4.2268337452681797</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>1985</v>
       </c>
@@ -1597,8 +2607,24 @@
       <c r="E27" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>676</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8603380065709938</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8603380065709938</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="3"/>
+        <v>4.2835865618606288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>1986</v>
       </c>
@@ -1614,8 +2640,24 @@
       <c r="E28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>729</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="1"/>
+        <v>1.882524555325281</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="2"/>
+        <v>1.882524555325281</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="3"/>
+        <v>4.3346729782872364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>1987</v>
       </c>
@@ -1631,8 +2673,24 @@
       <c r="E29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>784</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8970770116084164</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8970770116084164</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="3"/>
+        <v>4.3681812471912318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>1988</v>
       </c>
@@ -1648,8 +2706,24 @@
       <c r="E30" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>841</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9159272197393582</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9159272197393582</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="3"/>
+        <v>4.4115854554333733</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>1989</v>
       </c>
@@ -1665,8 +2739,24 @@
       <c r="E31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9334873032958098</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9334873032958098</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="3"/>
+        <v>4.4520190420621892</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>1990</v>
       </c>
@@ -1682,8 +2772,24 @@
       <c r="E32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>961</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9537596991045389</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9537596991045389</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="3"/>
+        <v>4.4986979584506432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>1991</v>
       </c>
@@ -1699,8 +2805,24 @@
       <c r="E33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9556877649908209</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9556877649908209</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5031374942187066</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>1992</v>
       </c>
@@ -1716,8 +2838,24 @@
       <c r="E34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>1089</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9580858631175779</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9580858631175779</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5086593192169149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>1993</v>
       </c>
@@ -1733,8 +2871,24 @@
       <c r="E35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>1156</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9647309066787746</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9647309066787746</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5239600974632221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>1994</v>
       </c>
@@ -1750,8 +2904,24 @@
       <c r="E36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>1225</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9790929145455831</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9790929145455831</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5570298426827982</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>1995</v>
       </c>
@@ -1767,8 +2937,24 @@
       <c r="E37" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>1296</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9836263008873751</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9836263008873751</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5674683504941918</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>1996</v>
       </c>
@@ -1784,8 +2970,24 @@
       <c r="E38" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>1369</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9988258190402861</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9988258190402861</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="3"/>
+        <v>4.602466534413777</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>1997</v>
       </c>
@@ -1801,8 +3003,24 @@
       <c r="E39" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
+        <v>1444</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0057294706832436</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0057294706832436</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="3"/>
+        <v>4.6183627797740749</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>1998</v>
       </c>
@@ -1818,8 +3036,24 @@
       <c r="E40" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40" s="1">
+        <f t="shared" si="0"/>
+        <v>1521</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="1"/>
+        <v>2.019216021268524</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="2"/>
+        <v>2.019216021268524</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="3"/>
+        <v>4.6494167101076505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>1999</v>
       </c>
@@ -1835,8 +3069,24 @@
       <c r="E41" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41" s="1">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0290630119293462</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0290630119293462</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="3"/>
+        <v>4.6720902440141119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>2000</v>
       </c>
@@ -1852,8 +3102,24 @@
       <c r="E42" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42" s="1">
+        <f t="shared" si="0"/>
+        <v>1681</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0149403497929366</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0149403497929366</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="3"/>
+        <v>4.6395716127054234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>2001</v>
       </c>
@@ -1869,8 +3135,24 @@
       <c r="E43" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43" s="1">
+        <f t="shared" si="0"/>
+        <v>1764</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0157787563890408</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0157787563890408</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="3"/>
+        <v>4.6415021152354816</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>2002</v>
       </c>
@@ -1886,8 +3168,24 @@
       <c r="E44" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44" s="1">
+        <f t="shared" si="0"/>
+        <v>1849</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0102999566398121</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0102999566398121</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="3"/>
+        <v>4.6288867126054072</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>2003</v>
       </c>
@@ -1903,8 +3201,24 @@
       <c r="E45" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45" s="1">
+        <f t="shared" si="0"/>
+        <v>1936</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9960736544852753</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9960736544852753</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5961294413359424</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>2004</v>
       </c>
@@ -1920,8 +3234,24 @@
       <c r="E46" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46" s="1">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9907826918031379</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9907826918031379</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5839465495364644</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>2005</v>
       </c>
@@ -1937,8 +3267,24 @@
       <c r="E47" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47" s="1">
+        <f t="shared" si="0"/>
+        <v>2116</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9916690073799486</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9916690073799486</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5859873665713176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>2006</v>
       </c>
@@ -1954,8 +3300,24 @@
       <c r="E48" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48" s="1">
+        <f t="shared" si="0"/>
+        <v>2209</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9890046156985368</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9890046156985368</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5798523780038014</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>2007</v>
       </c>
@@ -1971,8 +3333,24 @@
       <c r="E49" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F49" s="1">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9818186071706636</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9818186071706636</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5633059818893926</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>2008</v>
       </c>
@@ -1988,8 +3366,24 @@
       <c r="E50" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50" s="1">
+        <f t="shared" si="0"/>
+        <v>2401</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9623693356700211</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9623693356700211</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5185223792624196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>2009</v>
       </c>
@@ -2005,8 +3399,24 @@
       <c r="E51" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F51" s="1">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9175055095525466</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9175055095525466</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="3"/>
+        <v>4.4152196020296453</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>2010</v>
       </c>
@@ -2022,8 +3432,24 @@
       <c r="E52" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F52" s="1">
+        <f t="shared" si="0"/>
+        <v>2601</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8898617212581883</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8898617212581883</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="3"/>
+        <v>4.3515674271891731</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>2011</v>
       </c>
@@ -2039,8 +3465,24 @@
       <c r="E53" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F53" s="1">
+        <f t="shared" si="0"/>
+        <v>2704</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8603380065709938</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8603380065709938</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="3"/>
+        <v>4.2835865618606288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>2012</v>
       </c>
@@ -2056,8 +3498,24 @@
       <c r="E54" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>2809</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8369567370595505</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8369567370595505</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="3"/>
+        <v>4.2297491992283041</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>2013</v>
       </c>
@@ -2073,8 +3531,24 @@
       <c r="E55" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F55" s="1">
+        <f t="shared" si="0"/>
+        <v>2916</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8182258936139555</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8182258936139555</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="3"/>
+        <v>4.1866198383312714</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>2014</v>
       </c>
@@ -2090,8 +3564,24 @@
       <c r="E56" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F56" s="1">
+        <f t="shared" si="0"/>
+        <v>3025</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8048206787211623</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8048206787211623</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="3"/>
+        <v>4.1557531903507439</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>2015</v>
       </c>
@@ -2107,8 +3597,24 @@
       <c r="E57" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F57" s="1">
+        <f t="shared" si="0"/>
+        <v>3136</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7965743332104296</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7965743332104296</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="3"/>
+        <v>4.1367652781060524</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>2016</v>
       </c>
@@ -2124,8 +3630,24 @@
       <c r="E58" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F58" s="1">
+        <f t="shared" si="0"/>
+        <v>3249</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7867514221455612</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7867514221455612</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="3"/>
+        <v>4.1141471895182802</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>2017</v>
       </c>
@@ -2141,12 +3663,28 @@
       <c r="E59" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+      <c r="F59" s="1">
+        <f t="shared" si="0"/>
+        <v>3364</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7686381012476144</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7686381012476144</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0724397268340509</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="10">
         <v>2018</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="11">
         <v>56.7</v>
       </c>
       <c r="C60" s="1">
@@ -2158,12 +3696,28 @@
       <c r="E60" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+      <c r="F60" s="1">
+        <f t="shared" si="0"/>
+        <v>3481</v>
+      </c>
+      <c r="G60" s="1">
+        <f>LOG10(B60)</f>
+        <v>1.7535830588929067</v>
+      </c>
+      <c r="H60" s="1">
+        <f>LOG10(B60)</f>
+        <v>1.7535830588929067</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0377742107337067</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="10">
         <v>2019</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="11">
         <v>54.9</v>
       </c>
       <c r="C61" s="1">
@@ -2175,9 +3729,27 @@
       <c r="E61" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D62" s="5"/>
+      <c r="F61" s="1">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="G61" s="1">
+        <f>LOG10(B61)</f>
+        <v>1.7395723444500919</v>
+      </c>
+      <c r="H61" s="1">
+        <f>LOG10(B61)</f>
+        <v>1.7395723444500919</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0055133485154846</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D62" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
